--- a/data/scenariofromAMIRIS.xlsx
+++ b/data/scenariofromAMIRIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27CCFB5-153E-4C06-9975-843A8B816778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D3B8D6-8F52-4959-B54E-35EEC4796046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="3" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,7 +1092,7 @@
         <v>3035</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F6">
         <v>7998</v>

--- a/data/scenariofromAMIRIS.xlsx
+++ b/data/scenariofromAMIRIS.xlsx
@@ -8,16 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D3B8D6-8F52-4959-B54E-35EEC4796046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD02EF4-3D04-4D5B-90C6-EB021A3180F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="3" r:id="rId1"/>
     <sheet name="PredefinedPlantBuilder" sheetId="1" r:id="rId2"/>
     <sheet name="VariableRenewableOperator" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -561,10 +572,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +583,7 @@
     <col min="2" max="2" width="34.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +603,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -615,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -638,7 +649,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -661,7 +672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -684,7 +695,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -707,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -730,7 +741,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -753,7 +764,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -776,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -799,7 +810,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -822,7 +833,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -845,7 +856,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -867,8 +878,12 @@
       <c r="G13">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="I13">
+        <f>G13+F13+C13</f>
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -891,7 +906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -914,7 +929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -924,11 +939,9 @@
       <c r="C16" s="2">
         <v>2015</v>
       </c>
-      <c r="D16" s="2">
-        <v>2015</v>
-      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="2">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="F16" s="2">
         <v>2015</v>
@@ -945,10 +958,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -957,7 +970,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -986,7 +999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1018,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1064,7 +1077,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1078,7 +1091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1109,8 +1122,12 @@
       <c r="J6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="M6">
+        <f>C6+D6+G6+H6+I6+J6</f>
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1174,7 +1191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1206,7 +1223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1238,7 +1255,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1251,11 +1268,9 @@
       <c r="D11" s="2">
         <v>2015</v>
       </c>
-      <c r="E11" s="2">
-        <v>2015</v>
-      </c>
+      <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="G11" s="2">
         <v>2015</v>

--- a/data/scenariofromAMIRIS.xlsx
+++ b/data/scenariofromAMIRIS.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD02EF4-3D04-4D5B-90C6-EB021A3180F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD6D58-F295-4B8E-9203-F860F3800CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="3" r:id="rId1"/>
     <sheet name="PredefinedPlantBuilder" sheetId="1" r:id="rId2"/>
     <sheet name="VariableRenewableOperator" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={70E4DF65-CA70-4AEF-96A3-254AE0C80FB6}</author>
+  </authors>
+  <commentList>
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{70E4DF65-CA70-4AEF-96A3-254AE0C80FB6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    emlab</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Id</t>
   </si>
@@ -174,13 +193,43 @@
   </si>
   <si>
     <t>Owner</t>
+  </si>
+  <si>
+    <t>The data in gray is from scenario yaml but it should be coming from traderes db</t>
+  </si>
+  <si>
+    <t>data in green is taken for now</t>
+  </si>
+  <si>
+    <t>expectedPermittime</t>
+  </si>
+  <si>
+    <t>expectedLeadtime</t>
+  </si>
+  <si>
+    <t>Intermittent</t>
+  </si>
+  <si>
+    <t>ApplicableForLongTermContract</t>
+  </si>
+  <si>
+    <t>MaximumInstalledCapacityFractionPerAgent</t>
+  </si>
+  <si>
+    <t>MaximumInstalledCapacityFractionInCountry</t>
+  </si>
+  <si>
+    <t>permit and construction</t>
+  </si>
+  <si>
+    <t>FixedOperatingCostModifierAfterLifetime</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +248,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,8 +283,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -237,18 +323,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -262,6 +372,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Ingrid Sanchez Jimenez" id="{0D6AAC0E-CE8A-4DBD-9F28-2DFE901B25B2}" userId="S::isanchezjimene@tudelft.nl::cc90341c-89c3-4988-92a9-0175758ccb6e" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -547,12 +663,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A7" dT="2022-03-03T13:11:03.43" personId="{0D6AAC0E-CE8A-4DBD-9F28-2DFE901B25B2}" id="{70E4DF65-CA70-4AEF-96A3-254AE0C80FB6}">
+    <text>emlab</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D696DF-0A72-4D79-BF05-32DE16FBE614}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -565,6 +689,17 @@
         <v>33</v>
       </c>
     </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -574,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,7 +761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -649,11 +784,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
@@ -672,11 +807,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5">
@@ -695,7 +830,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -718,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -741,11 +876,11 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8">
@@ -764,7 +899,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -787,11 +922,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10">
@@ -810,11 +945,11 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11">
@@ -833,7 +968,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -860,7 +995,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C13">
@@ -960,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1095,7 +1230,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C6">
@@ -1290,4 +1425,220 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C9B4A3-7F82-47F5-90F3-9F27F0B53CF2}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>501</v>
+      </c>
+      <c r="C1" s="1">
+        <v>503</v>
+      </c>
+      <c r="D1" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>264</v>
+      </c>
+      <c r="C3">
+        <v>3260</v>
+      </c>
+      <c r="D3">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>0.05</v>
+      </c>
+      <c r="D13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14">
+        <f>B8+B7</f>
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <f>C8+C7</f>
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f>D8+D7</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/scenariofromAMIRIS.xlsx
+++ b/data/scenariofromAMIRIS.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DD6D58-F295-4B8E-9203-F860F3800CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB284295-7FA9-485F-8326-62841F9E9F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="explanation" sheetId="3" r:id="rId1"/>
     <sheet name="PredefinedPlantBuilder" sheetId="1" r:id="rId2"/>
     <sheet name="VariableRenewableOperator" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="StorageTrader" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,9 @@
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    emlab</t>
+    emlab
+Reply:
+    finally this data was added per technology: See Emlab parameters</t>
       </text>
     </comment>
   </commentList>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -223,13 +226,31 @@
   </si>
   <si>
     <t>FixedOperatingCostModifierAfterLifetime</t>
+  </si>
+  <si>
+    <t>EnergyToPowerRatio</t>
+  </si>
+  <si>
+    <t>SelfDischargeRatePerHour</t>
+  </si>
+  <si>
+    <t>ChargingEfficiency</t>
+  </si>
+  <si>
+    <t>DischargingEfficiency</t>
+  </si>
+  <si>
+    <t>InitialEnergyLevelInMWH</t>
+  </si>
+  <si>
+    <t>Lithium_ion_battery</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +262,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -262,12 +284,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -344,7 +360,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -353,6 +369,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,6 +687,9 @@
   <threadedComment ref="A7" dT="2022-03-03T13:11:03.43" personId="{0D6AAC0E-CE8A-4DBD-9F28-2DFE901B25B2}" id="{70E4DF65-CA70-4AEF-96A3-254AE0C80FB6}">
     <text>emlab</text>
   </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-16T17:44:22.65" personId="{0D6AAC0E-CE8A-4DBD-9F28-2DFE901B25B2}" id="{834C7BD6-E252-4DF5-A807-086A9C5C63A1}" parentId="{70E4DF65-CA70-4AEF-96A3-254AE0C80FB6}">
+    <text>finally this data was added per technology: See Emlab parameters</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -676,7 +698,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,8 +712,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1" ht="42.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1095,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1428,11 +1450,109 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1E3FDE-0541-485A-B7D0-113DE292BC5B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C9B4A3-7F82-47F5-90F3-9F27F0B53CF2}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/scenariofromAMIRIS.xlsx
+++ b/data/scenariofromAMIRIS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB284295-7FA9-485F-8326-62841F9E9F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3A01D0-1C79-4E20-8941-C20424B23B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Lithium_ion_battery</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,7 +1021,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C13">
         <v>264</v>
@@ -1253,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>1193</v>
@@ -1454,7 +1457,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1511,8 +1514,8 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
+      <c r="A7" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B7">
         <v>8000</v>
